--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B143966-20AF-44B3-80A2-1BE2C67D3C21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE454754-9DA1-4B2E-B080-D3119FAF4211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserForm" sheetId="1" r:id="rId1"/>
-    <sheet name="UserSignupForm" sheetId="2" r:id="rId2"/>
+    <sheet name="SignupForm" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -923,7 +923,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>userName : String</a:t>
+            <a:t>name : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1104,364 +1104,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF21B835-E600-4A1D-8C42-4AE53D09FB09}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B0330927-A124-4506-8894-C8AB69D922F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8839200" y="533400"/>
-          <a:ext cx="647700" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>user</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34A5ADE-8A2E-4A20-BA10-6AC90856FAAA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D55C065D-E679-44EF-9639-517288088D60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10306049" y="2066925"/>
-          <a:ext cx="1581151" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>UserForm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>継承</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1478,8 +1128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="2733675"/>
-          <a:ext cx="4800600" cy="1800225"/>
+          <a:off x="7077074" y="2733675"/>
+          <a:ext cx="8086725" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1517,7 +1167,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>UserSignupForm</a:t>
+            <a:t>SignupForm extends UserForm</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
             <a:solidFill>
@@ -2175,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2221,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE454754-9DA1-4B2E-B080-D3119FAF4211}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{EE454754-9DA1-4B2E-B080-D3119FAF4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1858E5CA-F898-42A8-9152-8D6201653C57}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserForm" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -28,7 +39,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
-    <t xml:space="preserve"> アクター別パッケージ名</t>
+    <t>getter/setterは、 @Data で自動生成</t>
+    <rPh sb="23" eb="27">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>*lombook使用</t>
@@ -46,18 +61,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>getter/setterは、 @Data で自動生成</t>
-    <rPh sb="23" eb="27">
-      <t>ジドウセイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,15 +167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -179,8 +190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077074" y="2733675"/>
-          <a:ext cx="5267325" cy="1800225"/>
+          <a:off x="7077075" y="2733675"/>
+          <a:ext cx="5267325" cy="3905250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -227,173 +238,6 @@
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7496174" y="3686175"/>
-          <a:ext cx="828675" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>id : int</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1105,13 +949,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -1128,8 +972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077074" y="2733675"/>
-          <a:ext cx="8086725" cy="1800225"/>
+          <a:off x="7077075" y="2733675"/>
+          <a:ext cx="11049000" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1350,23 +1194,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632146</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+        <xdr:cNvPr id="2" name="四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0EE490-E83C-4889-BE07-274503548AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC41076-9C63-4282-9A12-1F0CE100474F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59CD56A0-06B4-41B4-8716-F659DCD2EEA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,23 +1221,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="8572500"/>
-          <a:ext cx="2003746" cy="2247900"/>
+          <a:off x="9867900" y="3695700"/>
+          <a:ext cx="1952625" cy="342900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -1404,23 +1245,115 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>PostMapping</a:t>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidName : String</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>メソッド</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1428,23 +1361,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>32071</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+        <xdr:cNvPr id="3" name="四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59CD56A0-06B4-41B4-8716-F659DCD2EEA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6CAEB-B1BF-4B6F-A3DC-3DC5DD8A6BAF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BBC41076-9C63-4282-9A12-1F0CE100474F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,22 +1388,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11058525" y="8582025"/>
-          <a:ext cx="2003746" cy="2247900"/>
+          <a:off x="12020550" y="3667125"/>
+          <a:ext cx="1952625" cy="342900"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -1481,23 +1412,449 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>GetMapping</a:t>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidKana : String</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21777457-B05A-42E2-BDB3-3195B0F8C940}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1CD6CAEB-B1BF-4B6F-A3DC-3DC5DD8A6BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14373225" y="3695700"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidEmail : String</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A49274-318D-40F4-A396-1AF9905EF51A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{21777457-B05A-42E2-BDB3-3195B0F8C940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="4114800"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>メソッド</a:t>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidPass : String</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1825,38 +2182,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
+    <sheetView topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1871,38 +2228,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{EE454754-9DA1-4B2E-B080-D3119FAF4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1858E5CA-F898-42A8-9152-8D6201653C57}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{EE454754-9DA1-4B2E-B080-D3119FAF4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03035C9F-7949-4A2D-9C29-53CC066BB371}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UserForm" sheetId="1" r:id="rId1"/>
-    <sheet name="SignupForm" sheetId="2" r:id="rId2"/>
+    <sheet name="RepassEmailForm" sheetId="4" r:id="rId1"/>
+    <sheet name="NewPassForm" sheetId="3" r:id="rId2"/>
+    <sheet name="SignupForm" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>getter/setterは、 @Data で自動生成</t>
     <rPh sb="23" eb="27">
@@ -147,8 +148,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEBC7"/>
       <color rgb="FF91A5C4"/>
-      <color rgb="FFFFEBC7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -166,23 +167,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+        <xdr:cNvPr id="2" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0B8E4D-FFA0-4C13-AC21-A97F3E86409B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A78EEA-61F3-40FB-B943-7EF0FEF814DC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -190,8 +194,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="2733675"/>
-          <a:ext cx="5267325" cy="3905250"/>
+          <a:off x="6829425" y="1790700"/>
+          <a:ext cx="4705350" cy="2390775"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -203,7 +207,7 @@
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -217,27 +221,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UserForm</a:t>
+            <a:t>RepassEmailForm</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -245,26 +246,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="四角形 7">
+        <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8B20B8-A3C8-437C-982B-83984E547064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CB053A-1F74-4297-BD26-E2367B1B525D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A3A78EEA-61F3-40FB-B943-7EF0FEF814DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -272,8 +273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9286874" y="4095750"/>
-          <a:ext cx="2009776" cy="342900"/>
+          <a:off x="7496174" y="3114675"/>
+          <a:ext cx="1952625" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,23 +404,92 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>email :</a:t>
+            <a:t>email : String</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="1790700"/>
+          <a:ext cx="4705350" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> String</a:t>
+            <a:t>NewPassForm</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -427,26 +497,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="四角形 7">
+        <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB689E8-14DD-47FF-BB56-D042FAD6D807}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,8 +524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10563225" y="3686175"/>
-          <a:ext cx="1600200" cy="342900"/>
+          <a:off x="7496174" y="3686175"/>
+          <a:ext cx="1952625" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -585,50 +655,40 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>pass :</a:t>
+            <a:t>pass : String</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> String</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="四角形 7">
+        <xdr:cNvPr id="12" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD6ADA8-E882-42DB-9EC3-C45F35EB1273}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94CB7434-4316-4D9F-9FB6-A9CC06CD4FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -636,12 +696,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="3676650"/>
-          <a:ext cx="2038350" cy="342900"/>
+          <a:off x="6962775" y="2505075"/>
+          <a:ext cx="9696450" cy="3095625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -759,267 +822,19 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>name : String</a:t>
+            <a:t>SignupForm</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4BABE3-5145-40A0-8077-A8ADB78EB3D9}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7572374" y="4095750"/>
-          <a:ext cx="1619251" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>kana : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F2CD32F-C59B-4899-B7DF-A70146C42A78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7077075" y="2733675"/>
-          <a:ext cx="11049000" cy="1800225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SignupForm extends UserForm</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1855,6 +1670,704 @@
             </a:rPr>
             <a:t>hidPass : String</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E7B26F-883B-49D1-AB87-0BDC3FFF8613}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41A49274-318D-40F4-A396-1AF9905EF51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="4905375"/>
+          <a:ext cx="1619251" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3C9BB9-D42E-4C6D-BF08-D77C710CC64F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50E7B26F-883B-49D1-AB87-0BDC3FFF8613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="4914900"/>
+          <a:ext cx="2038350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>name : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05360B5D-B457-4C7C-8B0C-2057528AE962}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2A3C9BB9-D42E-4C6D-BF08-D77C710CC64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="4914900"/>
+          <a:ext cx="2009776" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CB7434-4316-4D9F-9FB6-A9CC06CD4FB3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05360B5D-B457-4C7C-8B0C-2057528AE962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13677900" y="4905375"/>
+          <a:ext cx="1600200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>pass :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2179,37 +2692,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8713BF13-3E3D-4E95-961B-24EA02735F75}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" ht="18.75">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" ht="18.75">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" ht="18.75">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" ht="18.75">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="39" spans="8:9" ht="18.75"/>
     <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
@@ -2219,17 +2733,64 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB93424-3B49-4639-9C6A-D19ADD41BBFB}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="19" spans="7:8" ht="18.75">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" ht="18.75"/>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{EE454754-9DA1-4B2E-B080-D3119FAF4211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03035C9F-7949-4A2D-9C29-53CC066BB371}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepassEmailForm" sheetId="4" r:id="rId1"/>
     <sheet name="NewPassForm" sheetId="3" r:id="rId2"/>
     <sheet name="SignupForm" sheetId="2" r:id="rId3"/>
+    <sheet name="UserSetForm" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -27,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>getter/setterは、 @Data で自動生成</t>
     <rPh sb="23" eb="27">
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2368,6 +2369,591 @@
             </a:solidFill>
             <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F378415-7B95-48B7-91EB-E24FD9057576}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="2095500"/>
+          <a:ext cx="4705350" cy="2771775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>UserSetForm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF20494-5E40-4CF0-99C5-E8EA647A9818}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="3686175"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047A2AED-6B79-457F-83DE-84D62316D7CF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524749" y="3209925"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>userName : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364DCC91-7588-46AF-9A73-DFBE5B17F8B7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572624" y="3200400"/>
+          <a:ext cx="1543051" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kana : String</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2695,36 +3281,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8713BF13-3E3D-4E95-961B-24EA02735F75}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8" ht="18.75">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="18.75"/>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -2742,36 +3327,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB93424-3B49-4639-9C6A-D19ADD41BBFB}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8" ht="18.75">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" ht="18.75">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" ht="18.75">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" ht="18.75">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="8:9" ht="18.75"/>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -2793,31 +3377,31 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -2829,4 +3413,50 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8BBDA-6E80-4A47-AD5A-F136B5A73642}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1251EA87-2109-4D54-9E27-6AB00C86137D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepassEmailForm" sheetId="4" r:id="rId1"/>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2479,7 +2479,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF20494-5E40-4CF0-99C5-E8EA647A9818}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F378415-7B95-48B7-91EB-E24FD9057576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,6 +2953,507 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>kana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818025CD-BD7C-4DE8-A0D7-073A705D3F91}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{364DCC91-7588-46AF-9A73-DFBE5B17F8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="3695700"/>
+          <a:ext cx="1676400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>pass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75133BB-89E5-4DFE-AA5D-AAF84EEAD58A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{818025CD-BD7C-4DE8-A0D7-073A705D3F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="4171950"/>
+          <a:ext cx="1676400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953096E6-020F-400C-B4A2-9DCBEC791EBE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C75133BB-89E5-4DFE-AA5D-AAF84EEAD58A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="4181475"/>
+          <a:ext cx="1676400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>prePass : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3285,31 +3786,31 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3331,31 +3832,31 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3377,31 +3878,31 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3420,34 +3921,34 @@
   <dimension ref="F19:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1251EA87-2109-4D54-9E27-6AB00C86137D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{990BE0A9-0FCA-47D5-9ED7-6067299B8C4B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2381,16 +2381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2408,8 +2408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="2095500"/>
-          <a:ext cx="4705350" cy="2771775"/>
+          <a:off x="7296150" y="2124075"/>
+          <a:ext cx="5486400" cy="5934075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2646,7 +2646,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047A2AED-6B79-457F-83DE-84D62316D7CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DAF20494-5E40-4CF0-99C5-E8EA647A9818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2785,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>userName : String</a:t>
+            <a:t>name : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3453,7 +3453,675 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>prePass : String</a:t>
+            <a:t>prepass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD353B62-2FFD-407F-8162-51616758E1F4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{953096E6-020F-400C-B4A2-9DCBEC791EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="4819650"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidName : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC8A83C-8C90-439B-B43D-7350E71C9EAE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BD353B62-2FFD-407F-8162-51616758E1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="4819650"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidKana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7130ECEB-69FC-451D-847F-B3067EA678D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4DC8A83C-8C90-439B-B43D-7350E71C9EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="5324475"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidEmail : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF950CC-1D8F-46BD-A4FC-CFC4818EC249}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7130ECEB-69FC-451D-847F-B3067EA678D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525000" y="5324475"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidPrepass : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3921,7 +4589,7 @@
   <dimension ref="F19:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29525"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{990BE0A9-0FCA-47D5-9ED7-6067299B8C4B}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E6A6E0B-B587-49FC-8B14-B6DE49CD7513}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3296,173 +3296,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953096E6-020F-400C-B4A2-9DCBEC791EBE}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C75133BB-89E5-4DFE-AA5D-AAF84EEAD58A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7477125" y="4181475"/>
-          <a:ext cx="1676400" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>prepass : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -3955,173 +3788,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>hidEmail : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF950CC-1D8F-46BD-A4FC-CFC4818EC249}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7130ECEB-69FC-451D-847F-B3067EA678D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525000" y="5324475"/>
-          <a:ext cx="1952625" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>hidPrepass : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4589,7 +4255,7 @@
   <dimension ref="F19:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{BC6D54BA-C09F-4FE4-B2ED-F385B4DCAD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E6A6E0B-B587-49FC-8B14-B6DE49CD7513}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98086433-EFF3-4A6C-92E8-F1BCB67AD385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RepassEmailForm" sheetId="4" r:id="rId1"/>
-    <sheet name="NewPassForm" sheetId="3" r:id="rId2"/>
-    <sheet name="SignupForm" sheetId="2" r:id="rId3"/>
-    <sheet name="UserSetForm" sheetId="6" r:id="rId4"/>
+    <sheet name="SearchForm" sheetId="8" r:id="rId1"/>
+    <sheet name="RepassEmailForm" sheetId="4" r:id="rId2"/>
+    <sheet name="NewPassForm" sheetId="3" r:id="rId3"/>
+    <sheet name="SignupForm" sheetId="2" r:id="rId4"/>
+    <sheet name="UserSetForm" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>getter/setterは、 @Data で自動生成</t>
     <rPh sb="23" eb="27">
@@ -70,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +169,606 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A87E5-73B2-4031-BCCB-9B9630AD594C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="2124075"/>
+          <a:ext cx="5486400" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SearchForm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F9088A-958A-4E5D-B3EA-36FE4272C8C9}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F378415-7B95-48B7-91EB-E24FD9057576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="3686175"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>time : int</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85C89AB-EBB5-4888-B045-F5DEBEDBE7CE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DAF20494-5E40-4CF0-99C5-E8EA647A9818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524749" y="3209925"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>name : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB3E964-E3E7-49F4-97CF-9D3F591C1EA6}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572624" y="3200400"/>
+          <a:ext cx="1543051" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -415,7 +1016,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -666,7 +1267,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2377,7 +2978,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4113,38 +4714,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8713BF13-3E3D-4E95-961B-24EA02735F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA4BD4F-5072-4D7B-AB3F-DD0E45729661}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4153,44 +4754,44 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB93424-3B49-4639-9C6A-D19ADD41BBFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8713BF13-3E3D-4E95-961B-24EA02735F75}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4205,6 +4806,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB93424-3B49-4639-9C6A-D19ADD41BBFB}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
   <dimension ref="F19:I105"/>
   <sheetViews>
@@ -4212,31 +4859,31 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4250,39 +4897,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8BBDA-6E80-4A47-AD5A-F136B5A73642}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="19" spans="7:8">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
+    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9">
+    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30">
+    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98086433-EFF3-4A6C-92E8-F1BCB67AD385}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{98086433-EFF3-4A6C-92E8-F1BCB67AD385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C769F8-7B26-459E-820B-C16C57EBCDDB}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchForm" sheetId="8" r:id="rId1"/>
@@ -29,10 +29,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -71,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,674 +1603,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>repass : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC41076-9C63-4282-9A12-1F0CE100474F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{59CD56A0-06B4-41B4-8716-F659DCD2EEA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="3695700"/>
-          <a:ext cx="1952625" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>hidName : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD6CAEB-B1BF-4B6F-A3DC-3DC5DD8A6BAF}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BBC41076-9C63-4282-9A12-1F0CE100474F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12020550" y="3667125"/>
-          <a:ext cx="1952625" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>hidKana : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21777457-B05A-42E2-BDB3-3195B0F8C940}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1CD6CAEB-B1BF-4B6F-A3DC-3DC5DD8A6BAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14373225" y="3695700"/>
-          <a:ext cx="1952625" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>hidEmail : String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41A49274-318D-40F4-A396-1AF9905EF51A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{21777457-B05A-42E2-BDB3-3195B0F8C940}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7477125" y="4114800"/>
-          <a:ext cx="1952625" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>hidPass : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4717,35 +4049,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA4BD4F-5072-4D7B-AB3F-DD0E45729661}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H8" workbookViewId="0">
       <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4767,31 +4099,31 @@
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4813,31 +4145,31 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4855,35 +4187,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -4905,31 +4237,31 @@
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
         <v>4</v>

--- a/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
+++ b/class_diagram/after/model/form/user/面談予約システム_クラス図 (model.form.user).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29622"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{98086433-EFF3-4A6C-92E8-F1BCB67AD385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C769F8-7B26-459E-820B-C16C57EBCDDB}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{98086433-EFF3-4A6C-92E8-F1BCB67AD385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB9FFE65-5184-46E5-9F05-9AE04959E3D7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchForm" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="NewPassForm" sheetId="3" r:id="rId3"/>
     <sheet name="SignupForm" sheetId="2" r:id="rId4"/>
     <sheet name="UserSetForm" sheetId="6" r:id="rId5"/>
+    <sheet name="ReservationRegisterForm" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>getter/setterは、 @Data で自動生成</t>
     <rPh sb="23" eb="27">
@@ -3721,6 +3722,758 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>hidEmail : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D606283-BD6E-415B-855C-FAE8CED665B1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="2124075"/>
+          <a:ext cx="5486400" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ReservationRegisterForm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3F99D6-74A8-4FB3-8A00-8B589C92BDBC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0D606283-BD6E-415B-855C-FAE8CED665B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="3105150"/>
+          <a:ext cx="1952625" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>userId : Integer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A10EAD7C-15AC-4CA8-9CD8-E592D921D706}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{3D3F99D6-74A8-4FB3-8A00-8B589C92BDBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486650" y="2686050"/>
+          <a:ext cx="1952625" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>date : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42580B14-D0A3-4E93-97D7-C438F77BA26C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A10EAD7C-15AC-4CA8-9CD8-E592D921D706}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="2695575"/>
+          <a:ext cx="1543050" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>timeId : Integer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4B1162C-63FC-4724-9B96-93BE73EB6661}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{42580B14-D0A3-4E93-97D7-C438F77BA26C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="3086100"/>
+          <a:ext cx="1981200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>interviewerId : Integer</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4187,7 +4940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+    <sheetView topLeftCell="P7" workbookViewId="0">
       <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
@@ -4273,4 +5026,50 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07806D68-69BD-4BF5-B531-CE85768D9627}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="19" spans="7:8" ht="18.75">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" ht="18.75">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" ht="18.75">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" ht="18.75">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>